--- a/hardware/development/clear-dev-v1/clear-dev-v1.xlsx
+++ b/hardware/development/clear-dev-v1/clear-dev-v1.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">SN74LVC1G125DCKT</t>
   </si>
   <si>
-    <t xml:space="preserve">U2, U3</t>
+    <t xml:space="preserve">U2, U3, U4</t>
   </si>
   <si>
     <t xml:space="preserve">Mouser</t>
@@ -547,7 +547,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>14</v>

--- a/hardware/development/clear-dev-v1/clear-dev-v1.xlsx
+++ b/hardware/development/clear-dev-v1/clear-dev-v1.xlsx
@@ -88,13 +88,13 @@
     <t xml:space="preserve">U6</t>
   </si>
   <si>
+    <t xml:space="preserve">1.8v</t>
+  </si>
+  <si>
     <t xml:space="preserve">W25Q32JVSSIQ</t>
   </si>
   <si>
     <t xml:space="preserve">U7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8v</t>
   </si>
   <si>
     <t xml:space="preserve">M.2 E connector</t>
@@ -547,7 +547,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,19 +674,22 @@
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -694,9 +697,7 @@
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">

--- a/hardware/development/clear-dev-v1/clear-dev-v1.xlsx
+++ b/hardware/development/clear-dev-v1/clear-dev-v1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
   <si>
     <t xml:space="preserve">Manufacturer Part Number</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t xml:space="preserve">J11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1</t>
   </si>
 </sst>
 </file>
@@ -258,7 +264,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -325,6 +331,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
@@ -400,7 +413,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -445,6 +458,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -457,7 +474,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,7 +564,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -697,7 +714,9 @@
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0"/>
+      <c r="I6" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
@@ -749,10 +768,10 @@
       <c r="C9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
@@ -883,7 +902,7 @@
       <c r="C15" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="0" t="s">
@@ -932,7 +951,7 @@
       <c r="D17" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="13" t="n">
         <v>150</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -955,7 +974,7 @@
       <c r="D18" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -978,7 +997,7 @@
       <c r="D19" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1015,20 +1034,20 @@
       <c r="B21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12" t="s">
         <v>63</v>
       </c>
       <c r="I21" s="9"/>
@@ -1095,7 +1114,7 @@
       <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
@@ -1144,7 +1163,24 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="10"/>
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="10"/>
@@ -1156,13 +1192,13 @@
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="10"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="10"/>
@@ -1170,19 +1206,19 @@
     </row>
     <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="10"/>
-      <c r="D33" s="15"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="10"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="10"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="10"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="10"/>
@@ -1199,26 +1235,29 @@
     <hyperlink ref="B4" r:id="rId3" display="TAR5S33UTE85LF"/>
     <hyperlink ref="B5" r:id="rId4" display="TAR5S18U"/>
     <hyperlink ref="B6" r:id="rId5" display="W25Q32JVSSIQ"/>
-    <hyperlink ref="B7" r:id="rId6" display="M.2 E connector"/>
-    <hyperlink ref="B8" r:id="rId7" display="TMUX4053BQBR"/>
-    <hyperlink ref="B9" r:id="rId8" display="DS1086LU-T"/>
-    <hyperlink ref="B10" r:id="rId9" display="APT3216SURCK"/>
-    <hyperlink ref="B11" r:id="rId10" display="CL21B106KAYQNNE"/>
-    <hyperlink ref="B12" r:id="rId11" display="885012207103"/>
-    <hyperlink ref="B13" r:id="rId12" display="C0805C104K5RAC7411"/>
-    <hyperlink ref="B14" r:id="rId13" display="C0805C103K5RAC7411"/>
-    <hyperlink ref="B15" r:id="rId14" display="RC0805FR-0710KL"/>
-    <hyperlink ref="B16" r:id="rId15" display="RMCF0805FT12K0"/>
-    <hyperlink ref="B17" r:id="rId16" display="RNCP0805FTD150R"/>
-    <hyperlink ref="B18" r:id="rId17" display="RC0805FR-071KL"/>
-    <hyperlink ref="B19" r:id="rId18" display="7427920415"/>
-    <hyperlink ref="B20" r:id="rId19" display="10118193-0001LF"/>
-    <hyperlink ref="B21" r:id="rId20" display="DSC6001JI1B-010.0000"/>
-    <hyperlink ref="B22" r:id="rId21" display="CSTNE12M0GH5L000R0"/>
-    <hyperlink ref="B23" r:id="rId22" display="36-5000-ND"/>
-    <hyperlink ref="B24" r:id="rId23" display="SKQGADE010"/>
-    <hyperlink ref="B25" r:id="rId24" display="HDR100IMP40M-G-V-TH"/>
-    <hyperlink ref="B26" r:id="rId25" display="HDR100IMP40M-G-V-TH"/>
+    <hyperlink ref="I6" r:id="rId6" display="alternative part"/>
+    <hyperlink ref="B7" r:id="rId7" display="M.2 E connector"/>
+    <hyperlink ref="B8" r:id="rId8" display="TMUX4053BQBR"/>
+    <hyperlink ref="B9" r:id="rId9" display="DS1086LU-T"/>
+    <hyperlink ref="B10" r:id="rId10" display="APT3216SURCK"/>
+    <hyperlink ref="B11" r:id="rId11" display="CL21B106KAYQNNE"/>
+    <hyperlink ref="B12" r:id="rId12" display="885012207103"/>
+    <hyperlink ref="B13" r:id="rId13" display="C0805C104K5RAC7411"/>
+    <hyperlink ref="B14" r:id="rId14" display="C0805C103K5RAC7411"/>
+    <hyperlink ref="B15" r:id="rId15" display="RC0805FR-0710KL"/>
+    <hyperlink ref="B16" r:id="rId16" display="RMCF0805FT12K0"/>
+    <hyperlink ref="B17" r:id="rId17" display="RNCP0805FTD150R"/>
+    <hyperlink ref="B18" r:id="rId18" display="RC0805FR-071KL"/>
+    <hyperlink ref="B19" r:id="rId19" display="7427920415"/>
+    <hyperlink ref="B20" r:id="rId20" display="10118193-0001LF"/>
+    <hyperlink ref="B21" r:id="rId21" display="DSC6001JI1B-010.0000"/>
+    <hyperlink ref="B22" r:id="rId22" display="CSTNE12M0GH5L000R0"/>
+    <hyperlink ref="B23" r:id="rId23" display="36-5000-ND"/>
+    <hyperlink ref="B24" r:id="rId24" display="SKQGADE010"/>
+    <hyperlink ref="B25" r:id="rId25" display="HDR100IMP40M-G-V-TH"/>
+    <hyperlink ref="B26" r:id="rId26" display="HDR100IMP40M-G-V-TH"/>
+    <hyperlink ref="B27" r:id="rId27" display="Standoff"/>
+    <hyperlink ref="I27" r:id="rId28" display="alternative part"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hardware/development/clear-dev-v1/clear-dev-v1.xlsx
+++ b/hardware/development/clear-dev-v1/clear-dev-v1.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -714,9 +714,7 @@
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
@@ -736,6 +734,9 @@
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1235,8 +1236,8 @@
     <hyperlink ref="B4" r:id="rId3" display="TAR5S33UTE85LF"/>
     <hyperlink ref="B5" r:id="rId4" display="TAR5S18U"/>
     <hyperlink ref="B6" r:id="rId5" display="W25Q32JVSSIQ"/>
-    <hyperlink ref="I6" r:id="rId6" display="alternative part"/>
-    <hyperlink ref="B7" r:id="rId7" display="M.2 E connector"/>
+    <hyperlink ref="B7" r:id="rId6" display="M.2 E connector"/>
+    <hyperlink ref="I7" r:id="rId7" display="alternative part"/>
     <hyperlink ref="B8" r:id="rId8" display="TMUX4053BQBR"/>
     <hyperlink ref="B9" r:id="rId9" display="DS1086LU-T"/>
     <hyperlink ref="B10" r:id="rId10" display="APT3216SURCK"/>

--- a/hardware/development/clear-dev-v1/clear-dev-v1.xlsx
+++ b/hardware/development/clear-dev-v1/clear-dev-v1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t xml:space="preserve">Manufacturer Part Number</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t xml:space="preserve">H1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,6 +479,18 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -564,7 +579,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -576,7 +591,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="9.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1164,7 +1181,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="16" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -1173,10 +1190,10 @@
       <c r="C27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -1184,8 +1201,18 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="10"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="I28" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="10"/>
@@ -1199,7 +1226,7 @@
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="10"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="16"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="10"/>
@@ -1207,19 +1234,19 @@
     </row>
     <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="10"/>
-      <c r="D33" s="16"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="10"/>
-      <c r="D34" s="16"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="10"/>
-      <c r="D35" s="16"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="10"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="10"/>
@@ -1230,6 +1257,11 @@
       <c r="D38" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="FT232HQ"/>
     <hyperlink ref="B3" r:id="rId2" display="SN74LVC1G125DCKT"/>
@@ -1259,6 +1291,8 @@
     <hyperlink ref="B26" r:id="rId26" display="HDR100IMP40M-G-V-TH"/>
     <hyperlink ref="B27" r:id="rId27" display="Standoff"/>
     <hyperlink ref="I27" r:id="rId28" display="alternative part"/>
+    <hyperlink ref="B28" r:id="rId29" display="Screw"/>
+    <hyperlink ref="I28" r:id="rId30" display="alternative part"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
